--- a/biology/Zoologie/Colopea_laeta/Colopea_laeta.xlsx
+++ b/biology/Zoologie/Colopea_laeta/Colopea_laeta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colopea laeta est une espèce d'araignées aranéomorphes de la famille des Stenochilidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colopea laeta est une espèce d'araignées aranéomorphes de la famille des Stenochilidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Birmanie et en Thaïlande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Birmanie et en Thaïlande.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le juvénile holotype mesure 4,25 mm[2].
-Le mâle décrit par Lehtinen en 1982 mesure 4,7 mm et la femelle 7,6 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le juvénile holotype mesure 4,25 mm.
+Le mâle décrit par Lehtinen en 1982 mesure 4,7 mm et la femelle 7,6 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Metronax laetus par Thorell en 1895. Elle est placée en synonymie avec Colopea pusilla par Platnick et Shadab en 1974[4]. Elle est relevée de synonymie dans le genre Colopea par Lehtinen en 1982[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Metronax laetus par Thorell en 1895. Elle est placée en synonymie avec Colopea pusilla par Platnick et Shadab en 1974. Elle est relevée de synonymie dans le genre Colopea par Lehtinen en 1982.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1895 : Descriptive catalogue of the spiders of Burma. London, p. 1-406 (texte intégral).</t>
         </is>
